--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N2">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q2">
-        <v>20.64643776272422</v>
+        <v>4.987989485888</v>
       </c>
       <c r="R2">
-        <v>185.817939864518</v>
+        <v>44.891905372992</v>
       </c>
       <c r="S2">
-        <v>0.02700529768984506</v>
+        <v>0.007395353013158758</v>
       </c>
       <c r="T2">
-        <v>0.02700529768984507</v>
+        <v>0.007395353013158757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P3">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q3">
-        <v>14.03872405061033</v>
+        <v>13.19864526308267</v>
       </c>
       <c r="R3">
-        <v>126.348516455493</v>
+        <v>118.787807367744</v>
       </c>
       <c r="S3">
-        <v>0.0183624858936584</v>
+        <v>0.01956873431511954</v>
       </c>
       <c r="T3">
-        <v>0.0183624858936584</v>
+        <v>0.01956873431511954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H4">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P4">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q4">
-        <v>107.543110281379</v>
+        <v>101.107718762432</v>
       </c>
       <c r="R4">
-        <v>967.8879925324109</v>
+        <v>909.9694688618879</v>
       </c>
       <c r="S4">
-        <v>0.1406651230113835</v>
+        <v>0.1499055430487227</v>
       </c>
       <c r="T4">
-        <v>0.1406651230113836</v>
+        <v>0.1499055430487227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N5">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q5">
-        <v>59.93312498341135</v>
+        <v>15.400882300029</v>
       </c>
       <c r="R5">
-        <v>539.3981248507021</v>
+        <v>138.607940700261</v>
       </c>
       <c r="S5">
-        <v>0.07839182236956296</v>
+        <v>0.02283384149967718</v>
       </c>
       <c r="T5">
-        <v>0.07839182236956296</v>
+        <v>0.02283384149967718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P6">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q6">
         <v>40.752047050553</v>
@@ -818,10 +818,10 @@
         <v>366.768423454977</v>
       </c>
       <c r="S6">
-        <v>0.05330319809733351</v>
+        <v>0.06042029053997523</v>
       </c>
       <c r="T6">
-        <v>0.05330319809733352</v>
+        <v>0.06042029053997522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P7">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q7">
         <v>312.179502521031</v>
@@ -880,10 +880,10 @@
         <v>2809.615522689279</v>
       </c>
       <c r="S7">
-        <v>0.4083271165289778</v>
+        <v>0.4628473318051311</v>
       </c>
       <c r="T7">
-        <v>0.4083271165289779</v>
+        <v>0.4628473318051311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N8">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q8">
-        <v>30.40315606761044</v>
+        <v>7.812631633613</v>
       </c>
       <c r="R8">
-        <v>273.628404608494</v>
+        <v>70.31368470251699</v>
       </c>
       <c r="S8">
-        <v>0.0397669704455741</v>
+        <v>0.01158325795509439</v>
       </c>
       <c r="T8">
-        <v>0.03976697044557412</v>
+        <v>0.01158325795509439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.451331</v>
       </c>
       <c r="O9">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P9">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q9">
         <v>20.67288910590766</v>
@@ -1004,10 +1004,10 @@
         <v>186.056001953169</v>
       </c>
       <c r="S9">
-        <v>0.02703989573553093</v>
+        <v>0.03065028769058314</v>
       </c>
       <c r="T9">
-        <v>0.02703989573553094</v>
+        <v>0.03065028769058314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>57.080637</v>
       </c>
       <c r="O10">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P10">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q10">
         <v>158.363878721207</v>
@@ -1066,10 +1066,10 @@
         <v>1425.274908490863</v>
       </c>
       <c r="S10">
-        <v>0.2071380902281336</v>
+        <v>0.234795360132538</v>
       </c>
       <c r="T10">
-        <v>0.2071380902281337</v>
+        <v>0.234795360132538</v>
       </c>
     </row>
   </sheetData>
